--- a/biology/Botanique/Liste_de_variétés_de_piment/Liste_de_variétés_de_piment.xlsx
+++ b/biology/Botanique/Liste_de_variétés_de_piment/Liste_de_variétés_de_piment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_vari%C3%A9t%C3%A9s_de_piment</t>
+          <t>Liste_de_variétés_de_piment</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe plusieurs milliers de variétés cultivées de piments (Capsicum spp) et de poivrons (tous sont des Capsicum annuum)[1] dont plus de 2 300 inscrites au catalogue européen des espèces et variétés[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe plusieurs milliers de variétés cultivées de piments (Capsicum spp) et de poivrons (tous sont des Capsicum annuum) dont plus de 2 300 inscrites au catalogue européen des espèces et variétés.
 Les cinq espèces les plus courantes, qui sont les seules domestiquées et cultivées, sont le Capsicum annuum, le Capsicum baccatum, le Capsicum chinense, Capsicum frutescens et le Capsicum pubescens.
 Pour le consommateur, la famille des piments recouvre les poivrons, les paprikas et les piments proprement dits.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_vari%C3%A9t%C3%A9s_de_piment</t>
+          <t>Liste_de_variétés_de_piment</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,48 @@
           <t>Variétés (noms vernaculaires)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Parmi les nombreux noms communs des cultivars ou des types variétaux des différentes espèces et des produits finaux qui en sont faits on trouve :
-Capsicum annuum[3]
-Piment d'Alep ou Piment Halaby ; cueilli mûr (rouge) puis séché ; Syrie, Turquie ; moyennement fort à fort
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les nombreux noms communs des cultivars ou des types variétaux des différentes espèces et des produits finaux qui en sont faits on trouve :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_de_variétés_de_piment</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_vari%C3%A9t%C3%A9s_de_piment</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Variétés (noms vernaculaires)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Capsicum annuum[3]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Piment d'Alep ou Piment Halaby ; cueilli mûr (rouge) puis séché ; Syrie, Turquie ; moyennement fort à fort
 Piment d'Anaheim (Anaheim pepper) ou Piment de Californie (California pepper) : Piment originaire de la région d'Anaheim (Californie, États-Unis) de la famille des Piments du Nouveau-Mexique, originellement dérivé du Piment de Chilaca (cf infra) ; fruits de grande taille, cueillis verts ou mûrs (rouges), consommés frais ; c'est un des poivrons/piments les plus courants aux États-Unis ; il est doux à moyennement fort
 Piment Ancho  (Chile Ancho) (Piment Large) : fruit séché de Piment Poblano (Chile Poblano), cueilli mûr (rouge); originaire comme son nom l'indique, de l'Etat de Puebla, Mexique ; le piment Ancho est de couleur rouge sombre voire brun rouge ou noir (on l'appelle alors Ancho Mulato ou Ancho Negro) ; c'est un des trois piments les plus couramment produits et consommés au Mexique avec le Piment Pasilla et le (en)Piment Mulato; il est doux à moyennement fort
 Piment d'Anglet ou Piment long doux des Landes ou Piment long doux de Gascogne ou Piment long doux du Pays basque ou Biper Eztia ; cueilli vert, consommé frais ; doux
@@ -557,7 +606,7 @@
 Kirmisi Biber (Piment Rouge) ; Turquie ; consommé sec, en flocons ; doux à moyennement fort
 Piment Mirasol ( Chile Mirasol ou Piment qui regarde le soleil) et, selon la forme de ses fruits, Chile Trompa Mirasol (Piment Mirasol Trompe par référence à la direction de pousse de ses fruits vers le haut et à leur forme en trompes d'éléphant...), Chile Puya Mirasol ou Chile Pulla Mirasol (Piment Mirasol Pique), Chile Bola Mirasol (Piment Mirasol Boule), Chile Cereza Mirasol (Piment Mirasol Cerise) etc : brun orangé à maturité, les fruits séchés de ces nombreuses variantes deviendront Piment Guajillo (Chile Guajillo), Piment Puya ou Piment Pulla (Chile Pulla ou Chile Puya),Piment Cascabel (Chile Cascabel), Piment Catarino (Chile Catarino ou Piment Coccinelle), etc. ; Mexique ; moyennement forts à forts
 Piment Morita (Chile Morita ou Piment Petite Mûre, par référence à leur taille et couleur) : cf plus haut : fruit cueilli mûr et séché de Piment Jalapeño ; Mexique ; moyennement fort à fort
-(en)Piment Mulato (Chile Mulato ou Piment mulâtre, par référence à sa couleur) : fruit cueilli très mûr, puis séché, d'une variété de Piment Poblano ; aussi populaire que le Piment Ancho et, comme lui, de couleur brun-chocolat ou presque noir[4] ; un des trois piments les plus couramment produits et consommés au Mexique avec le Piment Ancho et le Piment Pasilla ; le plus fort des trois, tout en restant relativement doux
+(en)Piment Mulato (Chile Mulato ou Piment mulâtre, par référence à sa couleur) : fruit cueilli très mûr, puis séché, d'une variété de Piment Poblano ; aussi populaire que le Piment Ancho et, comme lui, de couleur brun-chocolat ou presque noir ; un des trois piments les plus couramment produits et consommés au Mexique avec le Piment Ancho et le Piment Pasilla ; le plus fort des trois, tout en restant relativement doux
 Piment Mundu ( Mundu Chilli) ; Piment Cerise du Tamil Nadu, Inde ; doux à moyennement fort
 Piments du Nouveau-Mexique(en), (New Mexico Pepper) ou NuMex Pepper (en) par référence au nom de l'Université du Nouveau-Mexique qui « développe » cette famille de piments dont font partie les doux Piment d'Anaheim, cf supra, dont les NuMex Big Jim aux fruits de 30 cm, et les Piments de Hatch (vocable qui désigne les différentes variétés de Piments du Nouveau-Mexique cultivées dans cette région), mais aussi les variétés également à grands fruits mais plus piquantes Velarde, Española et  Barker's ; cueillis vert ou rouge ; consommés frais ou secs ; de doux à moyennement fort
 Piment œil d'oiseau (Bird's eye chili pepper), nommé ainsi à cause de la forme petite et ronde de ses fruits, ou Piment pequin (en) (Chile Pequin) ou Piment Piquin (Chile Piquin) soit Petit Piment en mexicain: variétés issues du Piment tepin (Chile tepin), variété sauvage à petits fruits très piquants que l'on trouve entre le Sud du Texas et le Nord du Mexique et le Nord de l'Amérique du Sud ; ses nombreuses variétés sont cultivées au Mexique, où leurs fruits séchés deviennent les Chile Bravo, Chile Mosquito, Chile Pequeño, etc. ; aux Antilles; en Amérique centrale et Amérique du Sud ; en Afrique ; dans le Sud de l'Inde et le Sud-Est asiatique ; en Chine, etc ; consommé frais ou sec ; fort à très fort. (NB : à ne pas confondre avec les Capsicum frutescens Piment oiseau et Piment langue d'oiseau... quoique ces termes soient parfois employés pour désigner des Capsicum annuum...)
@@ -582,9 +631,43 @@
 Pimenton de la Vera : AOP d'Estrémadure, Espagne ; doux à moyennement fort
 Poivron Wax Hongrois doux et Poivron Wax Hongrois fort : variétés de Wax Pepper (Piment Ciré, par référence au brillant de sa peau) ; originaires de Hongrie comme leur nom l'indique ; matières premières du paprika ; doux ou moyennement fort
 Piment Yatsufusa ou Piment du Japon ; fort
-Piment du Yunnan : similaire au mexicain Chile de arbol, cf supra ; Chine ; fort
-Capsicum baccatum
-Aji Amarillo (Piment Jaune), également appelé Aji Verde (Piment Vert) selon son degré de maturité ; également appelé Aji Escabeche par référence à son utilisation culinaire ou Kellu Uchu (Piment jaune) ou, lorsqu'il est séché, Puka Uchu (Piment rouge) ou Aji Cuzqueño, par référence à la ville de Cuzco, Pérou, ou encore Aji Chinchi en Bolivie : variété(s) de piment la plus commune au Pérou ; moyennement fort à fort
+Piment du Yunnan : similaire au mexicain Chile de arbol, cf supra ; Chine ; fort</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_variétés_de_piment</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_vari%C3%A9t%C3%A9s_de_piment</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Variétés (noms vernaculaires)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Capsicum baccatum</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aji Amarillo (Piment Jaune), également appelé Aji Verde (Piment Vert) selon son degré de maturité ; également appelé Aji Escabeche par référence à son utilisation culinaire ou Kellu Uchu (Piment jaune) ou, lorsqu'il est séché, Puka Uchu (Piment rouge) ou Aji Cuzqueño, par référence à la ville de Cuzco, Pérou, ou encore Aji Chinchi en Bolivie : variété(s) de piment la plus commune au Pérou ; moyennement fort à fort
 Piment Carry: Ile Maurice ; le plus souvent consommé vert ; moyennement fort à fort
 Aji Cito : Pérou ; le plus fort des Capsicum baccatum (... mais Aji Cito peut également désigner un Capsicum chinense doux...)
 Piment Couronne d'évêque (en) ( Bishop's crown) ou Christmas bell (Cloche De Noël) ou Joker's Hat (Chapeau de Bouffon) ; Caraïbes, Amérique du Sud ; selon variété, de doux à... fort
@@ -593,8 +676,43 @@
 Aji panca (en) (Piment Marron) ou Aji Brown, également appelé Aji Colorado (Piment Rouge) : deuxième variété de piment la plus commune au Pérou après le Aji Amarillo ; rouge sombre à marron ; doux (selon certains, ce nom désigne aussi un Capsicum chinense relativement doux du Pérou)
 Aji Rocotillo : originaire du Pérou, cultivé à Cuba, Porto Rico et dans le Sud des États-Unis ; doux à moyennement fort ; (le même vocable désigne un Capsicum chinense d'une variété équivalente au Piment Habanero, cf infra) ;
 (NB : Aji est le nom ancien du piment dans les Caraïbes, par lequel on désigne les piments en Amérique centrale et du Sud)
-Capsicum chinense[5]
-Piment antillais : voir piment habanero
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_variétés_de_piment</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_vari%C3%A9t%C3%A9s_de_piment</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Variétés (noms vernaculaires)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Capsicum chinense[5]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Piment antillais : voir piment habanero
 Piment des Bahamas (Bahamian chili pepper) : variété de Piment Habanero (cf infra) ; Bahamas ; consommé frais ; très fort (il existe aussi aux Bahamas une variété proche du Piment Végétarien antillais)
 Bhut Jolokia (Ghost Pepper ou Piment Esprit) : jaune, rouge ou marron ; Assam , Bangla Desh ; très fort
 Aji Cachucha (Piment Casquette, à cause de la forme de ses fruits) ; vert ou rouge ; Venezuela, Cuba, Porto Rico; consommé frais ; doux
@@ -611,9 +729,43 @@
 Naga viper : variété hybride de Piment Naga créée au Royaume-Uni ; un autre des piments les plus forts du monde
 Trinidad moruga scorpion : variété hybride de Habanero ; district de Moruga, Trinidad et Tobago ; encore un des piments les plus forts du monde ;
 Trinidad Perfume ; doux
-Piment Végétarien : doux et particulièrement parfumé ; consommé frais ; Antilles françaises
-Capsicum frutescens
-Piment oiseau ou Piment langue d'oiseau ou African bird's eye chili pepper (Piment œil d'oiseau africain) (à ne pas confondre avec les Piments œil d'oiseau de cultivars Capsicum annuum, cf supra) ou African devil (Diable africain) ou Piment zozio aux Antilles françaises, Piment martin à La Réunion, et Pili pili (piment en Swahili et dans les Langues bantoues) en Afrique - où les variétés les plus connues sont le Congo et le Mombasa -, ou, particulièrement lorsqu'il est séché ou en sauce, Piri piri en anglais et au Portugal ou Peri peri dans les pays lusophones d'Afrique: Mozambique et Angola, - où il est cultivé, mais pousse aussi à l'état sauvage - ; fort à très fort (NB: à ne pas confondre avec les Capsicum annuum Piment œil d'oiseau, quoique ces termes soient aussi utilisés pour désigner des Capsicum frutescens...)
+Piment Végétarien : doux et particulièrement parfumé ; consommé frais ; Antilles françaises</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_variétés_de_piment</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_vari%C3%A9t%C3%A9s_de_piment</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Variétés (noms vernaculaires)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Capsicum frutescens</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Piment oiseau ou Piment langue d'oiseau ou African bird's eye chili pepper (Piment œil d'oiseau africain) (à ne pas confondre avec les Piments œil d'oiseau de cultivars Capsicum annuum, cf supra) ou African devil (Diable africain) ou Piment zozio aux Antilles françaises, Piment martin à La Réunion, et Pili pili (piment en Swahili et dans les Langues bantoues) en Afrique - où les variétés les plus connues sont le Congo et le Mombasa -, ou, particulièrement lorsqu'il est séché ou en sauce, Piri piri en anglais et au Portugal ou Peri peri dans les pays lusophones d'Afrique: Mozambique et Angola, - où il est cultivé, mais pousse aussi à l'état sauvage - ; fort à très fort (NB: à ne pas confondre avec les Capsicum annuum Piment œil d'oiseau, quoique ces termes soient aussi utilisés pour désigner des Capsicum frutescens...)
 Cabai Rawitt : variété de Piment oiseau d'Indonésie ; fort à très fort
 Piment de Cayenne (du nom de la ville de Guyane française) ou Piment enragé ; fort à très fort ; (à ne pas confondre avec l'appelation Cayenne pepper anglo-saxonne utilisée pour désigner un Capsicum Annuum, cf supra)
 Piment de Hawaii
@@ -621,12 +773,80 @@
 Siling labuyo (en) (Piment sauvage en langue tagalog) : variété de Piment oiseau des Philippines ; fort à très fort
 Piment tabasco (en) (Tabasco Pepper), du nom de l'État de Tabasco , Mexique : cultivé en Louisiane, pour la fabrication de la sauce qui porte son nom, mais aussi au Mexique etc. ; moyennement fort à fort
  Piment Wiri Wiri (Wiri Wiri pepper ou Hot cherry pepper) ; Guyana ; très fort
-Piment Xiaomila du Yunnan : un des trois piments les plus populaires de Chine ; fort
-Capsicum pubescens
-Piment rocoto (Aji rocoto ou Chile rocoto au Pérou et en Équateur) ou Piment locoto (Aji locoto ou Chile locoto en Argentine et en Bolivie) ; également appelé Aji manzano ou Chile manzano (Piment pomme) ou Aji peron ou Chile peroñ (Piment poire), selon la forme de ses fruits, entre autres au Mexique ou Chile caballo au Guatemala etc : originaire des pays des Andes ; cueilli vert, jaune ou rouge ; fort à très fort
-etc.
-Autres plantes appelées piment
-Myrica gale : piment royal ou piment aquatique (Myricacées)
+Piment Xiaomila du Yunnan : un des trois piments les plus populaires de Chine ; fort</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_variétés_de_piment</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_vari%C3%A9t%C3%A9s_de_piment</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Variétés (noms vernaculaires)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Capsicum pubescens</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Piment rocoto (Aji rocoto ou Chile rocoto au Pérou et en Équateur) ou Piment locoto (Aji locoto ou Chile locoto en Argentine et en Bolivie) ; également appelé Aji manzano ou Chile manzano (Piment pomme) ou Aji peron ou Chile peroñ (Piment poire), selon la forme de ses fruits, entre autres au Mexique ou Chile caballo au Guatemala etc : originaire des pays des Andes ; cueilli vert, jaune ou rouge ; fort à très fort
+etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_variétés_de_piment</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_vari%C3%A9t%C3%A9s_de_piment</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Variétés (noms vernaculaires)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres plantes appelées piment</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Myrica gale : piment royal ou piment aquatique (Myricacées)
 Pimenta dioica : piment de la Jamaïque, quatre épice, bois d'Inde (Myrtaceae)
 Pimenta racemosa : arbre dénommé piment couronné ou bois d'Inde (Myrtaceae)
 Piper nigrum : piment noir, blanc, vert (Pipéracées)
